--- a/presentation/evavalues/jsd.xlsx
+++ b/presentation/evavalues/jsd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git repositories\Auto_TextSum\presentation\evavalues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{7D43EFD1-D3C6-4547-A7E2-5CECDE70C8F4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3ADF30-12A4-487F-9307-FDCB0588C2B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{39A35667-72F3-40EB-A095-2654574AAD07}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>Group 6</t>
   </si>
   <si>
-    <t>avg unsmoothed JSD</t>
+    <t>Ø unsmoothed JSD</t>
   </si>
   <si>
-    <t>avg smoothed JSD</t>
+    <t>Ø smoothed JSD</t>
   </si>
 </sst>
 </file>
@@ -95,6 +95,8 @@
   <colors>
     <mruColors>
       <color rgb="FF9C1C1C"/>
+      <color rgb="FFE67676"/>
+      <color rgb="FFC5D3ED"/>
     </mruColors>
   </colors>
   <extLst>
@@ -138,24 +140,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg unsmoothed JSD</c:v>
+                  <c:v>Ø unsmoothed JSD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-9EE1-444C-AC4F-506C2798DC7F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -282,21 +315,49 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avg smoothed JSD</c:v>
+                  <c:v>Ø smoothed JSD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9C1C1C"/>
-            </a:solidFill>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="9C1C1C"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9C1C1C"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9EE1-444C-AC4F-506C2798DC7F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -424,7 +485,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="90"/>
-        <c:overlap val="-15"/>
         <c:axId val="1572913872"/>
         <c:axId val="1479421616"/>
       </c:barChart>
@@ -559,12 +619,20 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="tr"/>
-      <c:overlay val="1"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75444093998405359"/>
+          <c:y val="1.5949339046090662E-2"/>
+          <c:w val="0.2381997764017888"/>
+          <c:h val="4.3747322193658948E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -575,7 +643,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1178,15 +1246,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>436125</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>103012</xdr:rowOff>
+      <xdr:colOff>256973</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61191</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1513,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2DCE94-3D25-4652-A7C9-C428C0391882}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/presentation/evavalues/jsd.xlsx
+++ b/presentation/evavalues/jsd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git repositories\Auto_TextSum\presentation\evavalues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3ADF30-12A4-487F-9307-FDCB0588C2B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16BA4C7-E597-4956-98AB-FF6DCF4D770A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{39A35667-72F3-40EB-A095-2654574AAD07}"/>
   </bookViews>
@@ -94,6 +94,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFA500"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFF8000"/>
       <color rgb="FF9C1C1C"/>
       <color rgb="FFE67676"/>
       <color rgb="FFC5D3ED"/>
@@ -124,7 +127,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1600"/>
+              <a:t>JSD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1600" baseline="0"/>
+              <a:t> values</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -148,10 +211,7 @@
           <c:spPr>
             <a:pattFill prst="dkUpDiag">
               <a:fgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFA500"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -171,10 +231,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFA500"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -185,11 +242,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-9EE1-444C-AC4F-506C2798DC7F}"/>
+                <c16:uniqueId val="{00000001-BF8F-487B-93F8-035F551906D1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -302,7 +360,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6253-4AF0-8F2E-182C05C2FE9F}"/>
+              <c16:uniqueId val="{00000002-BF8F-487B-93F8-035F551906D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -323,7 +381,7 @@
           <c:spPr>
             <a:pattFill prst="dkUpDiag">
               <a:fgClr>
-                <a:srgbClr val="9C1C1C"/>
+                <a:srgbClr val="0000FF"/>
               </a:fgClr>
               <a:bgClr>
                 <a:schemeClr val="bg1"/>
@@ -343,7 +401,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9C1C1C"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -354,11 +412,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-9EE1-444C-AC4F-506C2798DC7F}"/>
+                <c16:uniqueId val="{00000004-BF8F-487B-93F8-035F551906D1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -471,7 +530,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6253-4AF0-8F2E-182C05C2FE9F}"/>
+              <c16:uniqueId val="{00000005-BF8F-487B-93F8-035F551906D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -619,17 +678,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.75444093998405359"/>
-          <c:y val="1.5949339046090662E-2"/>
-          <c:w val="0.2381997764017888"/>
-          <c:h val="4.3747322193658948E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -675,7 +724,9 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -692,8 +743,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1246,22 +1297,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>24319</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>256973</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>61191</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304612</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CBECB2-BF76-456A-8D91-28908678B0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0661747A-D854-4571-A57F-D03F3FD52094}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1633,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/presentation/evavalues/jsd.xlsx
+++ b/presentation/evavalues/jsd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git repositories\Auto_TextSum\presentation\evavalues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16BA4C7-E597-4956-98AB-FF6DCF4D770A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC248B25-8186-4A64-9FC9-43F97AC9103E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{39A35667-72F3-40EB-A095-2654574AAD07}"/>
   </bookViews>
@@ -152,7 +152,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" sz="1600" baseline="0"/>
-              <a:t> values</a:t>
+              <a:t> score</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE" sz="1600"/>
           </a:p>
@@ -1633,7 +1633,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
